--- a/Descargas/R15_15º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
+++ b/Descargas/R15_15º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="B69" s="65">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
